--- a/bad_weeks.xlsx
+++ b/bad_weeks.xlsx
@@ -522,22 +522,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>69</v>
+        <v>591</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biomedical Data Science</t>
+          <t>Honours Differential Equations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MATH11174</t>
+          <t>MATH10066</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MATHO Biomedical Data Science - Computer Workshop/02</t>
+          <t>MATH3 Honours Diff Equations - Workshop/07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -546,74 +546,74 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>27-30, 32</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>720</v>
+      </c>
+      <c r="N2" t="n">
+        <v>780</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Murchison House</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>JCMB_1206c - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>75</v>
+        <v>574</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biomedical Data Science</t>
+          <t>Honours Differential Equations</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MATH11174</t>
+          <t>MATH10066</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MATHO Biomedical Data Science - Computer Workshop/01</t>
+          <t>MATH3 Honours Diff Equations - Workshop/06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -622,78 +622,70 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
         <v>15</v>
       </c>
-      <c r="H3" t="n">
-        <v>12</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>26-30, 32-37</t>
+          <t>(10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>720</v>
+      </c>
+      <c r="N3" t="n">
+        <v>780</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>JCMB_1206c - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>573</v>
+        <v>1100</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Honours Differential Equations</t>
+          <t>Statistical Methodology</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MATH10066</t>
+          <t>MATH10095</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MATH3 Honours Diff Equations - Workshop/01</t>
+          <t>MATH3 Statistical Methodology - Workshop/01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -702,34 +694,34 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>* SEM 1 - Even weeks only</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>(10, 12, 14, 16, 18)</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>660</v>
+      </c>
+      <c r="N4" t="n">
+        <v>720</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -738,12 +730,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -754,22 +746,22 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>582</v>
+        <v>1122</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Honours Differential Equations</t>
+          <t>Statistical Methodology</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MATH10066</t>
+          <t>MATH10095</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MATH3 Honours Diff Equations - Workshop/19</t>
+          <t>MATH3 Statistical Methodology - Workshop/20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -778,38 +770,34 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>* SEM 1</t>
+          <t>* SEM 1 - Odd weeks (excl. week 1)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>(11, 13, 15, 17, 19)</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>Monday</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
+      <c r="M5" t="n">
+        <v>780</v>
+      </c>
+      <c r="N5" t="n">
+        <v>840</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -818,38 +806,38 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>JCMB_1206c - Teaching Studio</t>
+          <t>40GS_LG.07 - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1100</v>
+        <v>75</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Statistical Methodology</t>
+          <t>Biomedical Data Science</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MATH10095</t>
+          <t>MATH11174</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MATH3 Statistical Methodology - Workshop/01</t>
+          <t>MATHO Biomedical Data Science - Computer Workshop/01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -861,44 +849,40 @@
         <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>* SEM 1 - Even weeks only</t>
+          <t>* SEM 2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>10, 12, 14, 16, 18</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>Friday</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
+      <c r="M6" t="n">
+        <v>600</v>
+      </c>
+      <c r="N6" t="n">
+        <v>720</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -908,28 +892,28 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>JCMB_3217 - Teaching Studio</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1119</v>
+        <v>69</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Statistical Methodology</t>
+          <t>Biomedical Data Science</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MATH10095</t>
+          <t>MATH11174</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MATH3 Statistical Methodology - Workshop/21</t>
+          <t>MATHO Biomedical Data Science - Computer Workshop/02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -941,16 +925,12 @@
         <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>* SEM 1 - Odd weeks (excl. week 1)</t>
-        </is>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>11, 13, 15, 17, 19</t>
+          <t>(27, 28, 29, 30, 32)</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -958,37 +938,33 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>600</v>
+      </c>
+      <c r="N7" t="n">
+        <v>720</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>Murchison House</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>40GS_LG.07 - Teaching Studio</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>

--- a/bad_weeks.xlsx
+++ b/bad_weeks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,47 +522,43 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>591</v>
+        <v>737</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Honours Differential Equations</t>
+          <t>Introduction to Linear Algebra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MATH10066</t>
+          <t>MATH08057</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MATH3 Honours Diff Equations - Workshop/07</t>
+          <t>MATH1 Intro to Linear Algebra - Lecture/11:10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+          <t>(9,)</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -570,11 +566,11 @@
         </is>
       </c>
       <c r="M2" t="n">
+        <v>660</v>
+      </c>
+      <c r="N2" t="n">
         <v>720</v>
       </c>
-      <c r="N2" t="n">
-        <v>780</v>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>01:00</t>
@@ -582,63 +578,67 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>JCMB_1206c - Teaching Studio</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>574</v>
+        <v>731</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Honours Differential Equations</t>
+          <t>Introduction to Linear Algebra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MATH10066</t>
+          <t>MATH08057</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MATH3 Honours Diff Equations - Workshop/06</t>
+          <t>MATH1 Intro to Linear Algebra - Lecture/12:10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>291</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>(10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -654,63 +654,59 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>JCMB_1206c - Teaching Studio</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1100</v>
+        <v>735</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Statistical Methodology</t>
+          <t>Introduction to Linear Algebra</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MATH10095</t>
+          <t>MATH08057</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MATH3 Statistical Methodology - Workshop/01</t>
+          <t>MATH1 Intro to Linear Algebra - Lecture/12:10 &lt;9-11, 13-19&gt;</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="H4" t="n">
-        <v>14</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>* SEM 1 - Even weeks only</t>
-        </is>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>(10, 12, 14, 16, 18)</t>
+          <t>(9, 10, 11, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -718,10 +714,10 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="N4" t="n">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -730,75 +726,71 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>JCMB_3217 - Teaching Studio</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1122</v>
+        <v>736</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Statistical Methodology</t>
+          <t>Introduction to Linear Algebra</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MATH10095</t>
+          <t>MATH08057</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MATH3 Statistical Methodology - Workshop/20</t>
+          <t>MATH1 Intro to Linear Algebra - Lecture/12:10 &lt;12&gt;</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture - Online Pre-recorded</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>* SEM 1 - Odd weeks (excl. week 1)</t>
-        </is>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>(11, 13, 15, 17, 19)</t>
+          <t>(12,)</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="M5" t="n">
+        <v>720</v>
+      </c>
+      <c r="N5" t="n">
         <v>780</v>
       </c>
-      <c r="N5" t="n">
-        <v>840</v>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>01:00</t>
@@ -806,7 +798,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -814,155 +806,1531 @@
           <t>*Central</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>40GS_LG.07 - Teaching Studio</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Biomedical Data Science</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MATH11174</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MATHO Biomedical Data Science - Computer Workshop/01</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/streaming</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture - Online Live</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
+          <t>(26,)</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="N6" t="n">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>*King's Buildings</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
-        </is>
-      </c>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Biomedical Data Science</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MATH11174</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
+          <t>MATH1 Calculus and Its Appl - Lecture/14:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>*Lecture</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>400</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>11</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>840</v>
+      </c>
+      <c r="N7" t="n">
+        <v>900</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Calculus and its Applications</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MATH08058</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MATH1 Calculus and Its Appl - Lecture/03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>*Lecture</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>229</v>
+      </c>
+      <c r="H8" t="n">
+        <v>207</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>(27, 30, 34, 37)</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>780</v>
+      </c>
+      <c r="N8" t="n">
+        <v>840</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>40GS_Lecture Theatre B</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Calculus and its Applications</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MATH08058</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MATH1 Calculus and Its Appl - Lecture/02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>*Lecture</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>229</v>
+      </c>
+      <c r="H9" t="n">
+        <v>209</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>(28, 32, 35)</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>780</v>
+      </c>
+      <c r="N9" t="n">
+        <v>840</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>40GS_Lecture Theatre B</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Calculus and its Applications</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MATH08058</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MATH1 Calculus and Its Appl - Lecture/01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>*Lecture</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>229</v>
+      </c>
+      <c r="H10" t="n">
+        <v>208</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>(29, 33, 36)</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>780</v>
+      </c>
+      <c r="N10" t="n">
+        <v>840</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>40GS_Lecture Theatre B</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Engineering Mathematics 1a</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MATH08074</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;9&gt;</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>*Workshop</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>20</v>
+      </c>
+      <c r="H11" t="n">
+        <v>47</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>(9,)</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>720</v>
+      </c>
+      <c r="N11" t="n">
+        <v>780</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>AT_2.05,AT_2.07,AT_2.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Engineering Mathematics 1a</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MATH08074</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>*Workshop</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>13</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>11</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>540</v>
+      </c>
+      <c r="N12" t="n">
+        <v>600</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>40GS_LG.07 - Teaching Studio</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Engineering Mathematics 1a</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MATH08074</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;10, 12-13, 16-19&gt;</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>*Workshop</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>60</v>
+      </c>
+      <c r="H13" t="n">
+        <v>47</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>(10, 12, 13, 16, 17, 18, 19)</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>7</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>720</v>
+      </c>
+      <c r="N13" t="n">
+        <v>780</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>40GS_LG.07 - Teaching Studio</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Engineering Mathematics 1a</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MATH08074</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;11&gt;</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>*Workshop</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>60</v>
+      </c>
+      <c r="H14" t="n">
+        <v>47</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>(11,)</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>720</v>
+      </c>
+      <c r="N14" t="n">
+        <v>780</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>40GS_LG.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Engineering Mathematics 1a</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MATH08074</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;14&gt;</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>*Workshop</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>20</v>
+      </c>
+      <c r="H15" t="n">
+        <v>47</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>(14,)</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>720</v>
+      </c>
+      <c r="N15" t="n">
+        <v>780</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>AT_2.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Engineering Mathematics 1a</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MATH08074</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;15&gt;</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>*Workshop</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>60</v>
+      </c>
+      <c r="H16" t="n">
+        <v>47</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>(15,)</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>720</v>
+      </c>
+      <c r="N16" t="n">
+        <v>780</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>40GS_LG.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mathematical Education</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MATH10010</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MATH4 Maths Education - Workshop/03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>*Workshop</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>15</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16)</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>8</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>840</v>
+      </c>
+      <c r="N17" t="n">
+        <v>900</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>JCMB</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>JCMB_3211 - Teaching Studio</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mathematical Education</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MATH10010</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MATH4 Maths Education - Workshop/03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>*Workshop</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>15</v>
+      </c>
+      <c r="H18" t="n">
+        <v>12</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>(26, 28, 29)</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>840</v>
+      </c>
+      <c r="N18" t="n">
+        <v>900</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>JCMB</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>JCMB_3211 - Teaching Studio</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Honours Differential Equations</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MATH10066</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MATH3 Honours Diff Equations - Workshop/07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>*Workshop</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>16</v>
+      </c>
+      <c r="H19" t="n">
+        <v>14</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>11</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>720</v>
+      </c>
+      <c r="N19" t="n">
+        <v>780</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>JCMB</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>JCMB_1206c - Teaching Studio</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Honours Differential Equations</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MATH10066</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MATH3 Honours Diff Equations - Workshop/06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>*Workshop</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>16</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>(10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>10</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>720</v>
+      </c>
+      <c r="N20" t="n">
+        <v>780</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>JCMB</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>JCMB_1206c - Teaching Studio</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Statistical Methodology</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MATH10095</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MATH3 Statistical Methodology - Workshop/01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>*Workshop</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>15</v>
+      </c>
+      <c r="H21" t="n">
+        <v>14</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>* SEM 1 - Even weeks only</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>(10, 12, 14, 16, 18)</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>5</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>660</v>
+      </c>
+      <c r="N21" t="n">
+        <v>720</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>JCMB_3217 - Teaching Studio</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Statistical Methodology</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MATH10095</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MATH3 Statistical Methodology - Workshop/20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>*Workshop</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>15</v>
+      </c>
+      <c r="H22" t="n">
+        <v>11</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>* SEM 1 - Odd weeks (excl. week 1)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>(11, 13, 15, 17, 19)</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>780</v>
+      </c>
+      <c r="N22" t="n">
+        <v>840</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>40GS_LG.07 - Teaching Studio</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/01 &lt;27-28&gt;</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>15</v>
+      </c>
+      <c r="H23" t="n">
+        <v>16</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>(27, 28)</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>900</v>
+      </c>
+      <c r="N23" t="n">
+        <v>960</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/01 &lt;29, 33&gt;</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>15</v>
+      </c>
+      <c r="H24" t="n">
+        <v>16</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>(29, 33)</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>840</v>
+      </c>
+      <c r="N24" t="n">
+        <v>900</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Biomedical Data Science</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MATH11174</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MATHO Biomedical Data Science - Computer Workshop/01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>*Workshop</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>15</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>11</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>600</v>
+      </c>
+      <c r="N25" t="n">
+        <v>720</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Biomedical Data Science</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MATH11174</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>MATHO Biomedical Data Science - Computer Workshop/02</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>*Workshop</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G26" t="n">
         <v>15</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H26" t="n">
         <v>13</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
         <is>
           <t>(27, 28, 29, 30, 32)</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="K26" t="n">
         <v>5</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>Friday</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M26" t="n">
         <v>600</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N26" t="n">
         <v>720</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>02:00</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>Murchison House</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
